--- a/example/ccm_RLC_PIR.xlsx
+++ b/example/ccm_RLC_PIR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bevil\PycharmProjects\ComponentConnectionMethod\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8C5978-D34F-4E17-AF38-7402D3112C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6AE14CC-397E-4536-A0CF-8E813BF59365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-165" yWindow="-165" windowWidth="38730" windowHeight="21210" tabRatio="874" xr2:uid="{0FEFD857-ED60-4427-9A78-6EB1BAE03D7E}"/>
+    <workbookView xWindow="720" yWindow="735" windowWidth="28740" windowHeight="15345" tabRatio="874" xr2:uid="{0FEFD857-ED60-4427-9A78-6EB1BAE03D7E}"/>
   </bookViews>
   <sheets>
     <sheet name="L_map" sheetId="3" r:id="rId1"/>
@@ -186,9 +186,6 @@
     <t>-Kp</t>
   </si>
   <si>
-    <t>V_R</t>
-  </si>
-  <si>
     <t>w_c</t>
   </si>
   <si>
@@ -217,6 +214,9 @@
   </si>
   <si>
     <t>x_{LPF}</t>
+  </si>
+  <si>
+    <t>V_LPF</t>
   </si>
 </sst>
 </file>
@@ -764,18 +764,18 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -795,7 +795,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -815,7 +815,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -835,7 +835,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -855,7 +855,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -869,13 +869,13 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -895,7 +895,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -915,7 +915,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -935,7 +935,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -955,7 +955,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -975,7 +975,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -995,7 +995,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1009,13 +1009,13 @@
         <v>12</v>
       </c>
       <c r="E12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" t="s">
         <v>57</v>
       </c>
-      <c r="F12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1069,13 +1069,13 @@
         <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -1148,15 +1148,15 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1240,25 +1240,25 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>54</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>55</v>
       </c>
       <c r="B9">
         <v>446.28315264000003</v>
@@ -1277,12 +1277,12 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
         <v>3</v>
@@ -1294,10 +1294,10 @@
         <v>16</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
@@ -1310,7 +1310,7 @@
       </c>
       <c r="E2" s="15"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>13</v>
       </c>
@@ -1343,9 +1343,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="3" t="s">
         <v>3</v>
@@ -1357,7 +1357,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1367,7 +1367,7 @@
       </c>
       <c r="D2" s="9"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -1391,7 +1391,7 @@
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
@@ -1415,9 +1415,9 @@
       <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="3" t="s">
         <v>3</v>
@@ -1429,21 +1429,21 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>13</v>
       </c>
